--- a/tweets_lindt.xlsx
+++ b/tweets_lindt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\2°SEMESTRE - INSPER\Ciência dos Dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3755CF4E-6271-43D6-8C88-6B1349B5A00E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB35D613-7024-4607-82C7-DBE4CCC1F042}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1981,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -4781,9 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/tweets_lindt.xlsx
+++ b/tweets_lindt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\GitHub\Projeto_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CB35D613-7024-4607-82C7-DBE4CCC1F042}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68477AED-D61E-4E80-B14D-ABB48CA8B6C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="469">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,8 +2075,8 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>468</v>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,8 +2124,8 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>468</v>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2300,8 +2300,8 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>468</v>
+      <c r="B33" s="2">
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2799,8 +2799,8 @@
       <c r="A89" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>468</v>
+      <c r="B89" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,11 +4781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView topLeftCell="A199" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
